--- a/data/evaluation/evaluation_Center_Autumn_Tomatoes.xlsx
+++ b/data/evaluation/evaluation_Center_Autumn_Tomatoes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2210.436570259521</v>
+        <v>2221.820539738522</v>
       </c>
       <c r="C4" t="n">
-        <v>9484672.237114726</v>
+        <v>10195663.70580548</v>
       </c>
       <c r="D4" t="n">
-        <v>3079.719506239931</v>
+        <v>3193.064939177636</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5409532765871086</v>
+        <v>0.5065421450353136</v>
       </c>
     </row>
     <row r="5">
